--- a/biology/Zoologie/Janthina/Janthina.xlsx
+++ b/biology/Zoologie/Janthina/Janthina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Janthina (les janthines en français) est un genre de mollusques gastéropodes marins de la famille des Epitonioidea. Ces espèces vivent à la surface de l'eau, où elles se nourrissent de siphonophores comme les physalies. 
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les janthines sont des gastéropodes d'allure classique, avec une coquille spiralée ressemblant à celle d'un escargot, grisée sur la partie supérieure et bleu-violacée sur la partie inférieure. La taille adulte est d'environ 4 cm. Pour flotter, elles utilisent des bulles de mucus (la « bave » des gastéropodes).
-Elles sont reconnaissables par la couleur mauve ou bleu de leur coquille[3].
+Elles sont reconnaissables par la couleur mauve ou bleu de leur coquille.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les janthines se trouvent dans les zones tropicales et subtropicales[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les janthines se trouvent dans les zones tropicales et subtropicales.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (15 octobre 2020)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (15 octobre 2020) :
 Janthina chavani (Ludbrook, 1978) †
 Janthina cimbrica Sorgenfrei, 1958 †
 Janthina exigua Lamarck, 1816
